--- a/pyNeedBodies/games.xlsx
+++ b/pyNeedBodies/games.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -55,19 +55,19 @@
     <t>Nic Bolton</t>
   </si>
   <si>
-    <t>20230906</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
     <t>WFCU Centre - Windsor Family Credit Union Centre</t>
   </si>
   <si>
     <t>Prospects Athletics</t>
   </si>
   <si>
+    <t>0;4;</t>
+  </si>
+  <si>
     <t>nan</t>
+  </si>
+  <si>
+    <t>2;3;</t>
   </si>
 </sst>
 </file>
@@ -474,16 +474,19 @@
         <v>1900</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -493,20 +496,26 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3">
+        <v>20230906</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
       </c>
       <c r="F3">
         <v>4</v>
       </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
       <c r="H3">
         <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/pyNeedBodies/games.xlsx
+++ b/pyNeedBodies/games.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -43,31 +43,22 @@
     <t>goalie list</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Chris Bolton</t>
+    <t>0</t>
   </si>
   <si>
     <t>Nic Bolton</t>
   </si>
   <si>
-    <t>WFCU Centre - Windsor Family Credit Union Centre</t>
+    <t>20230906</t>
+  </si>
+  <si>
+    <t>1000</t>
   </si>
   <si>
     <t>Prospects Athletics</t>
   </si>
   <si>
-    <t>0;4;</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>2;3;</t>
+    <t>0;</t>
   </si>
 </sst>
 </file>
@@ -425,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,57 +456,25 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
-        <v>20231010</v>
-      </c>
-      <c r="D2">
-        <v>1900</v>
+      <c r="D2" t="s">
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>20230906</v>
-      </c>
-      <c r="D3">
-        <v>1000</v>
-      </c>
-      <c r="E3" t="s">
         <v>14</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/pyNeedBodies/games.xlsx
+++ b/pyNeedBodies/games.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -46,16 +46,25 @@
     <t>0</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Nic Bolton</t>
   </si>
   <si>
-    <t>20230906</t>
-  </si>
-  <si>
-    <t>1000</t>
+    <t>20230908</t>
+  </si>
+  <si>
+    <t>2000</t>
   </si>
   <si>
     <t>Prospects Athletics</t>
+  </si>
+  <si>
+    <t>Atlas Tube Recreation Centre</t>
+  </si>
+  <si>
+    <t>nan</t>
   </si>
   <si>
     <t>0;</t>
@@ -416,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,25 +465,51 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
+      <c r="C2">
+        <v>20230906</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pyNeedBodies/games.xlsx
+++ b/pyNeedBodies/games.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -49,13 +49,10 @@
     <t>1</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Nic Bolton</t>
-  </si>
-  <si>
-    <t>20230908</t>
-  </si>
-  <si>
-    <t>2000</t>
   </si>
   <si>
     <t>Prospects Athletics</t>
@@ -425,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,7 +462,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>20230906</v>
@@ -474,19 +471,19 @@
         <v>1000</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -494,22 +491,57 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
+      <c r="C3">
+        <v>20230908</v>
+      </c>
+      <c r="D3">
+        <v>2000</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>20</v>
       </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
       <c r="H3">
         <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>20231010</v>
+      </c>
+      <c r="D4">
+        <v>900</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/pyNeedBodies/games.xlsx
+++ b/pyNeedBodies/games.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -49,19 +49,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Nic Bolton</t>
   </si>
   <si>
     <t>Prospects Athletics</t>
   </si>
   <si>
-    <t>Atlas Tube Recreation Centre</t>
-  </si>
-  <si>
     <t>nan</t>
+  </si>
+  <si>
+    <t>1;</t>
   </si>
   <si>
     <t>0;</t>
@@ -422,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,28 +459,25 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>20230906</v>
       </c>
       <c r="D2">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -491,56 +485,27 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>20230907</v>
+      </c>
+      <c r="D3">
+        <v>1100</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
-        <v>20230908</v>
-      </c>
-      <c r="D3">
-        <v>2000</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>20231010</v>
-      </c>
-      <c r="D4">
-        <v>900</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
         <v>15</v>
       </c>
     </row>

--- a/pyNeedBodies/games.xlsx
+++ b/pyNeedBodies/games.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -49,16 +49,19 @@
     <t>1</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Nic Bolton</t>
   </si>
   <si>
     <t>Prospects Athletics</t>
   </si>
   <si>
+    <t>Atlas Tube Recreation Centre</t>
+  </si>
+  <si>
     <t>nan</t>
-  </si>
-  <si>
-    <t>1;</t>
   </si>
   <si>
     <t>0;</t>
@@ -419,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +462,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>20230906</v>
@@ -468,16 +471,19 @@
         <v>1100</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -485,27 +491,56 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>20230907</v>
       </c>
       <c r="D3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>20230912</v>
+      </c>
+      <c r="D4">
+        <v>900</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
         <v>15</v>
       </c>
     </row>

--- a/pyNeedBodies/games.xlsx
+++ b/pyNeedBodies/games.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -46,25 +46,16 @@
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Nic Bolton</t>
   </si>
   <si>
+    <t>20230906</t>
+  </si>
+  <si>
+    <t>0900</t>
+  </si>
+  <si>
     <t>Prospects Athletics</t>
-  </si>
-  <si>
-    <t>Atlas Tube Recreation Centre</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>0;</t>
   </si>
 </sst>
 </file>
@@ -422,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,13 +453,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2">
-        <v>20230906</v>
-      </c>
-      <c r="D2">
-        <v>1100</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -476,72 +467,8 @@
       <c r="F2">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
       <c r="H2">
         <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>20230907</v>
-      </c>
-      <c r="D3">
-        <v>900</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>20230912</v>
-      </c>
-      <c r="D4">
-        <v>900</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/pyNeedBodies/games.xlsx
+++ b/pyNeedBodies/games.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nic/Projects/NeedBodies/pyNeedBodies/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A26064E-D7D4-1F48-A726-830B167CAECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1040" yWindow="740" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -41,28 +47,13 @@
   </si>
   <si>
     <t>goalie list</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Nic Bolton</t>
-  </si>
-  <si>
-    <t>20230906</t>
-  </si>
-  <si>
-    <t>0900</t>
-  </si>
-  <si>
-    <t>Prospects Athletics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,11 +116,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -171,7 +170,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,9 +202,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,6 +254,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -412,14 +447,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,29 +483,6 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
